--- a/Validation/covid/performance.xlsx
+++ b/Validation/covid/performance.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grouperenault-my.sharepoint.com/personal/philippe_thomy_renault_com/Documents/perso Wx/ES standard/python ESstandard/validation/covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{941FBFDF-ED57-47D5-8510-363CC5802F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7B6B40B-5BB7-4AD7-B894-EB3748AEC839}"/>
+  <xr:revisionPtr revIDLastSave="430" documentId="8_{941FBFDF-ED57-47D5-8510-363CC5802F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D067D5F-F015-4E9C-A9DE-10D08696D547}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F4A953D-3E80-43AA-9099-4E5633E4E2B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4F4A953D-3E80-43AA-9099-4E5633E4E2B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="temps réponse covid" sheetId="1" r:id="rId1"/>
+    <sheet name="taille bson cbor" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
-  <si>
-    <t>nombre de lignes :  913780</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t xml:space="preserve">valeur numérique + datetime </t>
   </si>
@@ -84,9 +87,6 @@
     <t>ES</t>
   </si>
   <si>
-    <t>size :  18175795</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -114,43 +114,208 @@
     <t>écart num-ES</t>
   </si>
   <si>
-    <t>départ :  1649929521.7865067</t>
-  </si>
-  <si>
-    <t>délai data:  177.40527296066284</t>
-  </si>
-  <si>
-    <t>délai il:  327.9077310562134</t>
-  </si>
-  <si>
-    <t>délai il2020:  121.2602207660675</t>
-  </si>
-  <si>
-    <t>délai il2021:  148.84140849113464</t>
-  </si>
-  <si>
-    <t>délai il2022:  42.099010944366455</t>
-  </si>
-  <si>
-    <t>délai to_bytes:  12.227564811706543</t>
-  </si>
-  <si>
-    <t>délai stockage:  8.54983925819397</t>
-  </si>
-  <si>
-    <t>délai chargement:  7.232197523117065</t>
-  </si>
-  <si>
-    <t>full 2020 :  20.67010498046875</t>
-  </si>
-  <si>
-    <t>numpy 2020 :  191.02245569229126</t>
-  </si>
-  <si>
-    <t>xarray 2020 :  345.70380306243896</t>
-  </si>
-  <si>
-    <t>xarray 2020 loc :  0.0625147819519043</t>
+    <t>ob xarray 2020 :</t>
+  </si>
+  <si>
+    <t>xarray 2020 loc :  0.0</t>
+  </si>
+  <si>
+    <t>ob 2020 write-read :</t>
+  </si>
+  <si>
+    <t>ob filter plot :</t>
+  </si>
+  <si>
+    <t>départ :  1650897298.294029</t>
+  </si>
+  <si>
+    <t>délai data:  122.69067096710205</t>
+  </si>
+  <si>
+    <t>nombre de lignes :  800000</t>
+  </si>
+  <si>
+    <t>délai il:  253.25556874275208</t>
+  </si>
+  <si>
+    <t>délai il2020:  117.84009456634521</t>
+  </si>
+  <si>
+    <t>délai il2021:  145.05957961082458</t>
+  </si>
+  <si>
+    <t>délai il2022:  4.293820858001709</t>
+  </si>
+  <si>
+    <t>délai to_bytes:  12.21760630607605</t>
+  </si>
+  <si>
+    <t>size :  15898930</t>
+  </si>
+  <si>
+    <t>délai stockage:  7.87669038772583</t>
+  </si>
+  <si>
+    <t>délai chargement:  5.39881157875061</t>
+  </si>
+  <si>
+    <t>full 2020 :  21.807005167007446</t>
+  </si>
+  <si>
+    <t>numpy 2020 :  189.52599048614502</t>
+  </si>
+  <si>
+    <t>xarray 2020 :  318.5781753063202</t>
+  </si>
+  <si>
+    <t>ob 2020 write-read :  56.70356273651123</t>
+  </si>
+  <si>
+    <t>ob xarray 2020 :  249.08301043510437</t>
+  </si>
+  <si>
+    <t>ob filter plot :  1.2117021083831787</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>pkl compress</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>dat</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>prp</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>Étiquettes de colonnes</t>
+  </si>
+  <si>
+    <t>Somme de res</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>bson</t>
+  </si>
+  <si>
+    <t>{"test":2}</t>
+  </si>
+  <si>
+    <t>{"test":2.258956}</t>
+  </si>
+  <si>
+    <t>{"test":datetime.datetime(2021,4,1)}</t>
+  </si>
+  <si>
+    <t>{"test":"2021-04-01T00:00:00"}</t>
+  </si>
+  <si>
+    <t>{"test":[1,2,3,4,5,6,7,8,9]}</t>
+  </si>
+  <si>
+    <t>{"test":["a", "b", "c", "d", "e", "f", "g", "h", "i", "j"]}</t>
+  </si>
+  <si>
+    <t>{"test":{"aaaaa": "bbbbb", "ccccc": "ddddd", "eeeee": "fffff", "ggggg": "hhhhh", "iiiii": "jjjjj"}}</t>
+  </si>
+  <si>
+    <t>{"test":["aaaaa", "bbbbb", "ccccc", "ddddd", "eeeee", "fffff", "ggggg", "hhhhh", "iiiii", "jjjjj"]}</t>
+  </si>
+  <si>
+    <t>{"test":{'a': 1.23456789, 'a': 1.23456789, 'a': 1.23456789, 'a': 1.23456789, 'a': 1.23456789}}</t>
+  </si>
+  <si>
+    <t>{"test":[1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000]}</t>
+  </si>
+  <si>
+    <t>{"test":[1.23456789,1.23456789,1.23456789,1.23456789,1.23456789,1.23456789,1.23456789,1.23456789,1.23456789,1.23456789]}</t>
+  </si>
+  <si>
+    <t>{"test":"2021-04-01"}</t>
+  </si>
+  <si>
+    <t>{'test':{'a':{'a':{'a':{'a':{'a':{'a':{'a':{'a':{'a':{'a':1}}}}}}}}}}}</t>
+  </si>
+  <si>
+    <t>cbor</t>
+  </si>
+  <si>
+    <t>{"test":{1.23456789: 1.23456789, 1.23456789: 1.23456789, 1.23456789: 1.23456789, 1.23456789: 1.23456789, 1.23456789: 1.23456789}}</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>{"test":[[1,2,3],[1,2,3], [1,2,3]]}</t>
+  </si>
+  <si>
+    <t>gain cbor/json</t>
+  </si>
+  <si>
+    <t>gain cbor/bson</t>
+  </si>
+  <si>
+    <t>dic json</t>
+  </si>
+  <si>
+    <t>dic cbor</t>
+  </si>
+  <si>
+    <t>dic cbor opt</t>
+  </si>
+  <si>
+    <t>dic cbor opt num</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>codage partiel interne</t>
   </si>
 </sst>
 </file>
@@ -160,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +333,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,10 +378,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -204,9 +391,40 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -224,7 +442,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -301,7 +519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$30</c:f>
+              <c:f>'temps réponse covid'!$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -336,7 +554,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$29:$N$29</c:f>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -357,7 +575,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$30:$N$30</c:f>
+              <c:f>'temps réponse covid'!$J$32:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -388,7 +606,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$31</c:f>
+              <c:f>'temps réponse covid'!$I$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -423,7 +641,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$29:$N$29</c:f>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -444,7 +662,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$31:$N$31</c:f>
+              <c:f>'temps réponse covid'!$J$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -475,7 +693,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$32</c:f>
+              <c:f>'temps réponse covid'!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +728,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$29:$N$29</c:f>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -531,7 +749,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$32:$N$32</c:f>
+              <c:f>'temps réponse covid'!$J$34:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -562,7 +780,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$33</c:f>
+              <c:f>'temps réponse covid'!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -597,7 +815,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$29:$N$29</c:f>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -618,7 +836,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$33:$N$33</c:f>
+              <c:f>'temps réponse covid'!$J$35:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -649,7 +867,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$34</c:f>
+              <c:f>'temps réponse covid'!$I$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -684,7 +902,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$29:$N$29</c:f>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -705,7 +923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$34:$N$34</c:f>
+              <c:f>'temps réponse covid'!$J$36:$M$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -736,7 +954,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$35</c:f>
+              <c:f>'temps réponse covid'!$I$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -777,7 +995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$29:$N$29</c:f>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -798,7 +1016,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$35:$N$35</c:f>
+              <c:f>'temps réponse covid'!$J$37:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -829,7 +1047,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$36</c:f>
+              <c:f>'temps réponse covid'!$I$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -870,7 +1088,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$29:$N$29</c:f>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -891,7 +1109,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$36:$N$36</c:f>
+              <c:f>'temps réponse covid'!$J$38:$M$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -922,7 +1140,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$37</c:f>
+              <c:f>'temps réponse covid'!$I$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -963,7 +1181,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$29:$N$29</c:f>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -984,7 +1202,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$37:$N$37</c:f>
+              <c:f>'temps réponse covid'!$J$39:$M$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1015,7 +1233,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$38</c:f>
+              <c:f>'temps réponse covid'!$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1056,7 +1274,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$29:$N$29</c:f>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1077,10 +1295,13 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$38:$N$38</c:f>
+              <c:f>'temps réponse covid'!$J$40:$M$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.7838120460510201</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>36.764996767044003</c:v>
                 </c:pt>
@@ -1097,6 +1318,180 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-FBC8-4D2C-BBE9-2FB52DF6D807}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'temps réponse covid'!$I$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ob 2020 write-read :</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>913.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'temps réponse covid'!$J$41:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.77051234245300204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9148242473602197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.703562736511202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EBE-4C08-AE57-917F3EF984BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'temps réponse covid'!$I$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ob xarray 2020 :</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'temps réponse covid'!$J$31:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>913.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'temps réponse covid'!$J$42:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3036959171295099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.863305091857899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.083010435104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0EBE-4C08-AE57-917F3EF984BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1439,7 +1834,478 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Taille format binaire</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4527517916059868E-2"/>
+          <c:y val="3.3655145128917707E-2"/>
+          <c:w val="0.89673684990003211"/>
+          <c:h val="0.72939101821831098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'taille bson cbor'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>long</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'taille bson cbor'!$C$20:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dic json</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dic cbor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dic cbor opt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dic cbor opt num</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'taille bson cbor'!$D$20:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B15-42AD-95A1-00F076FF791C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'taille bson cbor'!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>court</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'taille bson cbor'!$C$20:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dic json</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dic cbor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dic cbor opt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dic cbor opt num</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'taille bson cbor'!$E$20:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B15-42AD-95A1-00F076FF791C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1000671896"/>
+        <c:axId val="1000673864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1000671896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1000673864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1000673864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1000671896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1995,20 +2861,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2035,16 +3404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>936875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>154982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>555356</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>82142</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2059,8 +3428,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14546580" y="5288280"/>
-          <a:ext cx="6682740" cy="2057400"/>
+          <a:off x="11398231" y="6302643"/>
+          <a:ext cx="6683125" cy="1916109"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2091,8 +3460,346 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CFC760-FED8-46A5-9F8B-3D00100D15EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="THOMY Philippe" refreshedDate="44680.468852777776" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="6" xr:uid="{79A25F20-FC5A-4CB3-9E37-DE0FFCEEEC84}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D6:G12" sheet="Feuil1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="dat" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="30" count="3">
+        <n v="10"/>
+        <n v="20"/>
+        <n v="30"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="loc" numFmtId="0">
+      <sharedItems count="3">
+        <s v="a"/>
+        <s v="b"/>
+        <s v="c"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="prp" numFmtId="0">
+      <sharedItems count="2">
+        <s v="a1"/>
+        <s v="a2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="res" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="THOMY Philippe" refreshedDate="44680.471459375003" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="6" xr:uid="{0482C61E-4931-4FE1-99B4-38BB9DCC7E9A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D15:G21" sheet="Feuil1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="dat" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="30" count="3">
+        <n v="10"/>
+        <n v="20"/>
+        <n v="30"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="loc" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prp" numFmtId="0">
+      <sharedItems count="2">
+        <s v="a1"/>
+        <s v="a2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="res" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <x v="0"/>
+    <s v="a"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="a"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="b"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="c"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EACD70AF-0B94-45CB-9FC7-B22A31F78880}" name="Tableau croisé dynamique2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I15:L20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de res" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8169FED4-4822-4AA1-99F6-5A52AA314EA3}" name="Tableau croisé dynamique1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I6:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de res" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2388,776 +4095,938 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562A234-B77F-40DC-A813-F83D12C5A085}">
-  <dimension ref="A2:R38"/>
+  <dimension ref="A2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L25" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="A4" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="14.5546875" customWidth="1"/>
-    <col min="18" max="18" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.5546875" customWidth="1"/>
+    <col min="16" max="16" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>913780</v>
+      </c>
+      <c r="J2" s="4">
+        <v>913780</v>
       </c>
       <c r="K2" s="4">
+        <v>8000</v>
+      </c>
+      <c r="L2" s="4">
+        <v>80000</v>
+      </c>
+      <c r="M2" s="4">
+        <v>800000</v>
+      </c>
+      <c r="N2" s="4">
         <v>913780</v>
       </c>
-      <c r="L2" s="4">
-        <v>913780</v>
-      </c>
-      <c r="M2" s="4">
-        <v>8000</v>
-      </c>
-      <c r="N2" s="4">
-        <v>80000</v>
-      </c>
-      <c r="O2" s="4">
-        <v>800000</v>
-      </c>
-      <c r="P2" s="4">
-        <v>913780</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J3" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4">
+        <v>18175397</v>
+      </c>
+      <c r="J3" s="4">
+        <v>18175795</v>
       </c>
       <c r="K3" s="4">
-        <v>18175397</v>
+        <v>144645</v>
       </c>
       <c r="L3" s="4">
+        <v>1511350</v>
+      </c>
+      <c r="M3" s="4">
+        <v>15898986</v>
+      </c>
+      <c r="N3" s="4">
         <v>18175795</v>
       </c>
-      <c r="M3" s="4">
-        <v>144645</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1511350</v>
-      </c>
-      <c r="O3" s="4">
-        <v>15898986</v>
-      </c>
-      <c r="P3" s="4">
-        <v>18175795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="str">
+        <f>LEFT(B5,FIND(":",B5))</f>
+        <v>départ :</v>
+      </c>
+      <c r="E5"/>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="K5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" t="str">
-        <f>LEFT(B6,FIND(":",B6))</f>
-        <v>départ :</v>
+        <f t="shared" ref="D6:D16" si="0">LEFT(B6,FIND(":",B6))</f>
+        <v>délai data:</v>
       </c>
       <c r="E6">
-        <f>_xlfn.NUMBERVALUE(RIGHT(B6,LEN(B6)-FIND(":",B6)),".")</f>
-        <v>1649929521.7865</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2</v>
+        <f t="shared" ref="E6:E16" si="1">_xlfn.NUMBERVALUE(RIGHT(B6,LEN(B6)-FIND(":",B6)),".")</f>
+        <v>122.69067096710199</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.9664185047149596</v>
+      </c>
+      <c r="J6" s="1">
+        <v>149.99979162216101</v>
       </c>
       <c r="K6" s="1">
-        <v>4.9664185047149596</v>
+        <v>1.6662740707397401</v>
       </c>
       <c r="L6" s="1">
-        <v>149.99979162216101</v>
+        <v>12.3541555404663</v>
       </c>
       <c r="M6" s="1">
-        <v>1.5040416717529199</v>
+        <v>122.69067096710199</v>
       </c>
       <c r="N6" s="1">
-        <v>13.046000957488999</v>
-      </c>
-      <c r="O6" s="1">
-        <v>134.15314841270401</v>
-      </c>
-      <c r="P6" s="1">
         <v>177.40527296066199</v>
       </c>
-      <c r="Q6" s="2">
-        <f>L6/K6</f>
+      <c r="O6" s="2">
+        <f>J6/I6</f>
         <v>30.202809424891598</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D17" si="0">LEFT(B7,FIND(":",B7))</f>
-        <v>délai data:</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E17" si="1">_xlfn.NUMBERVALUE(RIGHT(B7,LEN(B7)-FIND(":",B7)),".")</f>
-        <v>177.40527296066199</v>
-      </c>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>nombre de lignes :</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>nombre de lignes :</v>
+        <v>délai il:</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>913780</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
+        <v>253.25556874275199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.71875715255737305</v>
+      </c>
+      <c r="J8" s="1">
+        <v>320.03782534599299</v>
       </c>
       <c r="K8" s="1">
-        <v>0.71875715255737305</v>
+        <v>4.4068000316619802</v>
       </c>
       <c r="L8" s="1">
-        <v>320.03782534599299</v>
+        <v>31.420936346053999</v>
       </c>
       <c r="M8" s="1">
-        <v>3.6882543563842698</v>
+        <v>253.25556874275199</v>
       </c>
       <c r="N8" s="1">
-        <v>33.228177309036198</v>
-      </c>
-      <c r="O8" s="1">
-        <v>296.67298173904402</v>
-      </c>
-      <c r="P8" s="1">
         <v>327.90773105621298</v>
       </c>
-      <c r="Q8" s="2">
-        <f>L8/K8</f>
+      <c r="O8" s="2">
+        <f>J8/I8</f>
         <v>445.2655868637728</v>
       </c>
-      <c r="R8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>délai il:</v>
+        <v>délai il2020:</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>327.90773105621298</v>
-      </c>
-      <c r="J9" t="s">
-        <v>5</v>
+        <v>117.840094566345</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10.7985496520996</v>
+      </c>
+      <c r="J9" s="1">
+        <v>118.708411216735</v>
       </c>
       <c r="K9" s="1">
-        <v>10.7985496520996</v>
+        <v>4.0550794601440403</v>
       </c>
       <c r="L9" s="1">
-        <v>118.708411216735</v>
+        <v>35.315552234649601</v>
       </c>
       <c r="M9" s="1">
-        <v>3.21939969062805</v>
+        <v>117.840094566345</v>
       </c>
       <c r="N9" s="1">
-        <v>32.375585079193101</v>
-      </c>
-      <c r="O9" s="1">
-        <v>144.79801368713299</v>
-      </c>
-      <c r="P9" s="1">
         <v>121.26022076606699</v>
       </c>
-      <c r="Q9">
-        <f>L9/K9</f>
+      <c r="O9">
+        <f>J9/I9</f>
         <v>10.992995822698662</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>délai il2020:</v>
+        <v>délai il2021:</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>121.26022076606699</v>
-      </c>
-      <c r="J10" t="s">
-        <v>6</v>
+        <v>145.05957961082399</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>12.0173563957214</v>
+      </c>
+      <c r="J10" s="1">
+        <v>147.083409786224</v>
       </c>
       <c r="K10" s="1">
-        <v>12.0173563957214</v>
+        <v>3.0624811649322501</v>
       </c>
       <c r="L10" s="1">
-        <v>147.083409786224</v>
+        <v>32.749300241470301</v>
       </c>
       <c r="M10" s="1">
-        <v>3.63067531585693</v>
+        <v>145.05957961082399</v>
       </c>
       <c r="N10" s="1">
-        <v>33.062002420425401</v>
-      </c>
-      <c r="O10" s="1">
-        <v>164.70277142524699</v>
-      </c>
-      <c r="P10" s="1">
         <v>148.84140849113399</v>
       </c>
-      <c r="Q10">
-        <f>L10/K10</f>
+      <c r="O10">
+        <f>J10/I10</f>
         <v>12.239248379002127</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>délai il2021:</v>
+        <v>délai il2022:</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>148.84140849113399</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
+        <v>4.2938208580017001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7.1579747200012198</v>
+      </c>
+      <c r="J11" s="1">
+        <v>41.308261871337798</v>
       </c>
       <c r="K11" s="1">
-        <v>7.1579747200012198</v>
+        <v>3.0839130878448402</v>
       </c>
       <c r="L11" s="1">
-        <v>41.308261871337798</v>
+        <v>31.4121284484863</v>
       </c>
       <c r="M11" s="1">
-        <v>3.2308003902435298</v>
+        <v>4.2938208580017001</v>
       </c>
       <c r="N11" s="1">
-        <v>32.358364820480297</v>
-      </c>
-      <c r="O11" s="1">
-        <v>4.6728122234344402</v>
-      </c>
-      <c r="P11" s="1">
         <v>42.099010944366398</v>
       </c>
-      <c r="Q11">
-        <f>L11/K11</f>
+      <c r="O11">
+        <f>J11/I11</f>
         <v>5.7709426880080903</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>délai il2022:</v>
+        <v>délai to_bytes:</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>42.099010944366398</v>
-      </c>
-      <c r="J12" t="s">
-        <v>8</v>
+        <v>12.217606306076</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7.6882483959197998</v>
+      </c>
+      <c r="J12" s="1">
+        <v>13.004883050918499</v>
       </c>
       <c r="K12" s="1">
-        <v>7.6882483959197998</v>
+        <v>1.2346320152282699</v>
       </c>
       <c r="L12" s="1">
-        <v>13.004883050918499</v>
+        <v>3.0534477233886701</v>
       </c>
       <c r="M12" s="1">
-        <v>1.2815461158752399</v>
+        <v>12.217606306076</v>
       </c>
       <c r="N12" s="1">
-        <v>2.8098008632659899</v>
-      </c>
-      <c r="O12" s="1">
-        <v>12.2235891819</v>
-      </c>
-      <c r="P12" s="1">
         <v>12.2275648117065</v>
       </c>
-      <c r="Q12">
-        <f>L12/K12</f>
+      <c r="O12">
+        <f>J12/I12</f>
         <v>1.6915274300737044</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>délai to_bytes:</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>12.2275648117065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>size :</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>size :</v>
+        <v>délai stockage:</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>18175795</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
+        <v>7.8766903877258301</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.2899141311645499</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8.2600297927856392</v>
       </c>
       <c r="K14" s="1">
-        <v>3.2899141311645499</v>
+        <v>0.269600629806518</v>
       </c>
       <c r="L14" s="1">
-        <v>8.2600297927856392</v>
+        <v>1.9413931369781401</v>
       </c>
       <c r="M14" s="1">
-        <v>0.27949786186218201</v>
+        <v>7.8766903877258301</v>
       </c>
       <c r="N14" s="1">
-        <v>2.7656366825103702</v>
-      </c>
-      <c r="O14" s="1">
-        <v>7.13146471977233</v>
-      </c>
-      <c r="P14" s="1">
         <v>8.5498392581939697</v>
       </c>
-      <c r="Q14">
-        <f>L14/K14</f>
+      <c r="O14">
+        <f>J14/I14</f>
         <v>2.5107128829109557</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>délai stockage:</v>
+        <v>délai chargement:</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>8.5498392581939697</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
+        <v>5.3988115787506104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.5925037860870299</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7.4889545440673801</v>
       </c>
       <c r="K15" s="1">
-        <v>1.5925037860870299</v>
+        <v>0.300901889801025</v>
       </c>
       <c r="L15" s="1">
-        <v>7.4889545440673801</v>
+        <v>2.74078917503356</v>
       </c>
       <c r="M15" s="1">
-        <v>0.32818388938903797</v>
+        <v>5.3988115787506104</v>
       </c>
       <c r="N15" s="1">
-        <v>2.7343623638153001</v>
-      </c>
-      <c r="O15" s="1">
-        <v>7.1619122028350803</v>
-      </c>
-      <c r="P15" s="1">
         <v>7.2321975231170601</v>
       </c>
-      <c r="Q15">
-        <f>L15/K15</f>
+      <c r="O15">
+        <f>J15/I15</f>
         <v>4.7026290357956553</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>délai chargement:</v>
+        <v>full 2020 :</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>7.2321975231170601</v>
-      </c>
-      <c r="J16" t="s">
+        <v>21.8070051670074</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="5">
+        <v>35.6916568279266</v>
+      </c>
+      <c r="J16" s="1">
+        <v>21.040426731109601</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.5062997341155999</v>
+      </c>
+      <c r="L16" s="1">
+        <v>6.9407413005828804</v>
+      </c>
+      <c r="M16" s="1">
+        <v>21.8070051670074</v>
+      </c>
+      <c r="N16" s="1">
+        <v>20.6701049804687</v>
+      </c>
+      <c r="O16" s="2">
+        <f>J16/I16</f>
+        <v>0.58950546433156104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17" si="2">LEFT(B17,FIND(":",B17))</f>
+        <v>numpy 2020 :</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" si="3">_xlfn.NUMBERVALUE(RIGHT(B17,LEN(B17)-FIND(":",B17)),".")</f>
+        <v>189.52599048614499</v>
+      </c>
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="5">
-        <v>35.6916568279266</v>
-      </c>
-      <c r="L16" s="1">
-        <v>21.040426731109601</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.93770480155944802</v>
-      </c>
-      <c r="N16" s="1">
-        <v>5.6110880374908403</v>
-      </c>
-      <c r="O16" s="1">
-        <v>23.291443586349398</v>
-      </c>
-      <c r="P16" s="1">
-        <v>20.6701049804687</v>
-      </c>
-      <c r="Q16" s="2">
-        <f>L16/K16</f>
-        <v>0.58950546433156104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>full 2020 :</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>20.6701049804687</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
+      <c r="I17" s="1">
+        <v>18.614551782608</v>
+      </c>
+      <c r="J17" s="1">
+        <v>189.303459644317</v>
       </c>
       <c r="K17" s="1">
-        <v>18.614551782608</v>
+        <v>6.1997797489166198</v>
       </c>
       <c r="L17" s="1">
-        <v>189.303459644317</v>
+        <v>42.545219659805298</v>
       </c>
       <c r="M17" s="1">
-        <v>7.3489930629730198</v>
+        <v>189.52599048614499</v>
       </c>
       <c r="N17" s="1">
-        <v>45.209735631942699</v>
-      </c>
-      <c r="O17" s="1">
-        <v>226.90205764770499</v>
-      </c>
-      <c r="P17" s="1">
         <v>191.022455692291</v>
       </c>
-      <c r="Q17">
-        <f>L17/K17</f>
+      <c r="O17">
+        <f>J17/I17</f>
         <v>10.169649092554973</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ref="D18" si="2">LEFT(B18,FIND(":",B18))</f>
-        <v>numpy 2020 :</v>
+        <f t="shared" ref="D18:D19" si="4">LEFT(B18,FIND(":",B18))</f>
+        <v>xarray 2020 :</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18" si="3">_xlfn.NUMBERVALUE(RIGHT(B18,LEN(B18)-FIND(":",B18)),".")</f>
-        <v>191.022455692291</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
+        <f t="shared" ref="E18:E19" si="5">_xlfn.NUMBERVALUE(RIGHT(B18,LEN(B18)-FIND(":",B18)),".")</f>
+        <v>318.57817530632002</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
+        <v>4.7838120460510201</v>
+      </c>
+      <c r="L18" s="1">
+        <v>37.008533954620297</v>
+      </c>
+      <c r="M18" s="1">
+        <v>318.57817530632002</v>
       </c>
       <c r="N18" s="1">
-        <v>36.764996767044003</v>
-      </c>
-      <c r="O18" s="1">
-        <v>354.17169547080903</v>
-      </c>
-      <c r="P18" s="1">
         <v>345.703803062438</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D20" si="4">LEFT(B19,FIND(":",B19))</f>
-        <v>xarray 2020 :</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ref="E19:E20" si="5">_xlfn.NUMBERVALUE(RIGHT(B19,LEN(B19)-FIND(":",B19)),".")</f>
-        <v>345.703803062438</v>
-      </c>
-      <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>3.0993700027465799E-2</v>
-      </c>
-      <c r="P19" s="1">
-        <v>6.2514781951904297E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="str">
         <f t="shared" si="4"/>
         <v>xarray 2020 loc :</v>
       </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <v>1.56271457672119E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>6.2514781951904297E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20" si="6">LEFT(B20,FIND(":",B20))</f>
+        <v>ob 2020 write-read :</v>
+      </c>
       <c r="E20">
-        <f t="shared" si="5"/>
-        <v>6.2514781951904297E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
+        <f t="shared" ref="E20" si="7">_xlfn.NUMBERVALUE(RIGHT(B20,LEN(B20)-FIND(":",B20)),".")</f>
+        <v>56.703562736511202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1">
+        <v>0.77051234245300204</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4.9148242473602197</v>
+      </c>
+      <c r="M20" s="1">
+        <v>56.703562736511202</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ref="D21:D22" si="8">LEFT(B21,FIND(":",B21))</f>
+        <v>ob xarray 2020 :</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E22" si="9">_xlfn.NUMBERVALUE(RIGHT(B21,LEN(B21)-FIND(":",B21)),".")</f>
+        <v>249.083010435104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>1.3036959171295099</v>
+      </c>
+      <c r="L21" s="1">
+        <v>28.863305091857899</v>
+      </c>
+      <c r="M21" s="1">
+        <v>249.083010435104</v>
+      </c>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="8"/>
+        <v>ob filter plot :</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="9"/>
+        <v>1.2117021083831701</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1">
+        <v>1.65980124473571</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.97389435768127397</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.2117021083831701</v>
+      </c>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1">
+        <f>SUM(I6:I17)</f>
+        <v>102.53593134880055</v>
+      </c>
+      <c r="J24" s="1">
+        <f>SUM(J6:J17)</f>
+        <v>1016.2354536056489</v>
+      </c>
+      <c r="K24" s="1">
         <f>SUM(K6:K17)</f>
-        <v>102.53593134880055</v>
-      </c>
-      <c r="L22" s="1">
-        <f>SUM(L6:L17)</f>
-        <v>1016.2354536056489</v>
-      </c>
-      <c r="M22" s="1">
+        <v>25.785761833190886</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ref="L24:N24" si="10">SUM(L6:L17)</f>
+        <v>200.47366380691508</v>
+      </c>
+      <c r="M24" s="1">
         <f>SUM(M6:M17)</f>
-        <v>25.449097156524626</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" ref="N22:P22" si="6">SUM(N6:N17)</f>
-        <v>203.20075416564922</v>
-      </c>
-      <c r="O22" s="1">
-        <f>SUM(O6:O17)</f>
-        <v>1021.7101948261243</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="6"/>
+        <v>879.96583867072968</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="10"/>
         <v>1057.2158064842197</v>
       </c>
-      <c r="Q22">
-        <f>L22/K22</f>
+      <c r="O24">
+        <f>J24/I24</f>
         <v>9.9110179254985304</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K23">
-        <f>K22/60</f>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I25" s="1">
+        <f>I24/60</f>
         <v>1.7089321891466758</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L25">
+      <c r="J25" s="1">
+        <f t="shared" ref="J25:O25" si="11">J24/60</f>
+        <v>16.93725756009415</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="11"/>
+        <v>0.42976269721984811</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="11"/>
+        <v>3.3412277301152513</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="11"/>
+        <v>14.666097311178827</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="11"/>
+        <v>17.620263441403662</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="11"/>
+        <v>0.16518363209164216</v>
+      </c>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27">
         <f>16.94*60</f>
         <v>1016.4000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K29" s="3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>9369</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J31" s="3">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="K31" s="3">
         <v>80</v>
       </c>
-      <c r="M29" s="3">
+      <c r="L31" s="3">
         <v>800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="M31" s="3">
         <v>913.8</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J30" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" s="1">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
         <v>1.5040416717529199</v>
       </c>
-      <c r="L30" s="1">
+      <c r="K32" s="1">
         <v>13.046000957488999</v>
       </c>
-      <c r="M30" s="1">
+      <c r="L32" s="1">
         <v>134.15314841270401</v>
       </c>
-      <c r="N30" s="1">
+      <c r="M32" s="1">
         <v>177.40527296066199</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J31" t="s">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3.6882543563842698</v>
+      </c>
+      <c r="K33" s="1">
+        <v>33.228177309036198</v>
+      </c>
+      <c r="L33" s="1">
+        <v>296.67298173904402</v>
+      </c>
+      <c r="M33" s="1">
+        <v>327.90773105621298</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="1">
-        <v>3.6882543563842698</v>
-      </c>
-      <c r="L31" s="1">
-        <v>33.228177309036198</v>
-      </c>
-      <c r="M31" s="1">
-        <v>296.67298173904402</v>
-      </c>
-      <c r="N31" s="1">
-        <v>327.90773105621298</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="J34" s="1">
         <v>3.21939969062805</v>
       </c>
-      <c r="L32" s="1">
+      <c r="K34" s="1">
         <v>32.375585079193101</v>
       </c>
-      <c r="M32" s="1">
+      <c r="L34" s="1">
         <v>144.79801368713299</v>
       </c>
-      <c r="N32" s="1">
+      <c r="M34" s="1">
         <v>121.26022076606699</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="1">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1">
         <v>1.2815461158752399</v>
       </c>
-      <c r="L33" s="1">
+      <c r="K35" s="1">
         <v>2.8098008632659899</v>
       </c>
-      <c r="M33" s="1">
+      <c r="L35" s="1">
         <v>12.2235891819</v>
       </c>
-      <c r="N33" s="1">
+      <c r="M35" s="1">
         <v>42.099010944366398</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J34" t="s">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.27949786186218201</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2.7656366825103702</v>
+      </c>
+      <c r="L36" s="1">
+        <v>7.13146471977233</v>
+      </c>
+      <c r="M36" s="1">
+        <v>12.2275648117065</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="1">
-        <v>0.27949786186218201</v>
-      </c>
-      <c r="L34" s="1">
-        <v>2.7656366825103702</v>
-      </c>
-      <c r="M34" s="1">
-        <v>7.13146471977233</v>
-      </c>
-      <c r="N34" s="1">
-        <v>12.2275648117065</v>
-      </c>
-    </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J35" t="s">
+      <c r="J37" s="1">
+        <v>0.32818388938903797</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2.7343623638153001</v>
+      </c>
+      <c r="L37" s="1">
+        <v>7.1619122028350803</v>
+      </c>
+      <c r="M37" s="1">
+        <v>8.5498392581939697</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="1">
-        <v>0.32818388938903797</v>
-      </c>
-      <c r="L35" s="1">
-        <v>2.7343623638153001</v>
-      </c>
-      <c r="M35" s="1">
-        <v>7.1619122028350803</v>
-      </c>
-      <c r="N35" s="1">
-        <v>8.5498392581939697</v>
-      </c>
-    </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J36" t="s">
+      <c r="J38" s="1">
+        <v>0.93770480155944802</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5.6110880374908403</v>
+      </c>
+      <c r="L38" s="1">
+        <v>23.291443586349398</v>
+      </c>
+      <c r="M38" s="1">
+        <v>20.6701049804687</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="1">
-        <v>0.93770480155944802</v>
-      </c>
-      <c r="L36" s="1">
-        <v>5.6110880374908403</v>
-      </c>
-      <c r="M36" s="1">
-        <v>23.291443586349398</v>
-      </c>
-      <c r="N36" s="1">
-        <v>20.6701049804687</v>
-      </c>
-    </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="1">
+      <c r="J39" s="1">
         <v>7.3489930629730198</v>
       </c>
-      <c r="L37" s="1">
+      <c r="K39" s="1">
         <v>45.209735631942699</v>
       </c>
-      <c r="M37" s="1">
+      <c r="L39" s="1">
         <v>226.90205764770499</v>
       </c>
-      <c r="N37" s="1">
+      <c r="M39" s="1">
         <v>191.022455692291</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J38" t="s">
-        <v>19</v>
-      </c>
-      <c r="L38" s="1">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4.7838120460510201</v>
+      </c>
+      <c r="K40" s="1">
         <v>36.764996767044003</v>
       </c>
-      <c r="M38" s="1">
+      <c r="L40" s="1">
         <v>354.17169547080903</v>
       </c>
-      <c r="N38" s="1">
+      <c r="M40" s="1">
         <v>345.703803062438</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.77051234245300204</v>
+      </c>
+      <c r="K41" s="1">
+        <v>4.9148242473602197</v>
+      </c>
+      <c r="L41" s="1">
+        <v>56.703562736511202</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.3036959171295099</v>
+      </c>
+      <c r="K42" s="1">
+        <v>28.863305091857899</v>
+      </c>
+      <c r="L42" s="1">
+        <v>249.083010435104</v>
       </c>
     </row>
   </sheetData>
@@ -3168,4 +5037,807 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332857F1-BD0D-4463-A92B-CA1C6732E867}">
+  <dimension ref="C2:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7</v>
+      </c>
+      <c r="G3" s="13">
+        <f>(D3-F3)/D3</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="H3" s="13">
+        <f>(E3-F3)/E3</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G17" si="0">(D4-F4)/D4</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4:H17" si="1">(E4-F4)/E4</f>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.61290322580645162</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3">
+        <v>26</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25714285714285712</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3">
+        <v>17</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="10">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10">
+        <v>79</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.56756756756756754</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.79746835443037978</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="11">
+        <v>70</v>
+      </c>
+      <c r="E9" s="11">
+        <v>86</v>
+      </c>
+      <c r="F9" s="11">
+        <v>37</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.47142857142857142</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.56976744186046513</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3">
+        <v>130</v>
+      </c>
+      <c r="E10" s="3">
+        <v>126</v>
+      </c>
+      <c r="F10" s="3">
+        <v>97</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25384615384615383</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.23015873015873015</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="10">
+        <v>60</v>
+      </c>
+      <c r="E11" s="10">
+        <v>106</v>
+      </c>
+      <c r="F11" s="3">
+        <v>27</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.74528301886792447</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="10">
+        <v>100</v>
+      </c>
+      <c r="E12" s="10">
+        <v>146</v>
+      </c>
+      <c r="F12" s="3">
+        <v>67</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.54109589041095896</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>101</v>
+      </c>
+      <c r="F13" s="3">
+        <v>67</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.33663366336633666</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="3">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="3">
+        <v>81</v>
+      </c>
+      <c r="E15" s="3">
+        <v>95</v>
+      </c>
+      <c r="F15" s="3">
+        <v>37</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.54320987654320985</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.61052631578947369</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3">
+        <v>36</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="3">
+        <v>25</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3">
+        <v>103</v>
+      </c>
+      <c r="F17" s="3">
+        <v>19</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55813953488372092</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="1"/>
+        <v>0.81553398058252424</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="3">
+        <v>388</v>
+      </c>
+      <c r="E20" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="3">
+        <v>298</v>
+      </c>
+      <c r="E21" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="3">
+        <v>132</v>
+      </c>
+      <c r="E22" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3">
+        <v>123</v>
+      </c>
+      <c r="E23" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="15">
+        <f>(D20-D23)/D20</f>
+        <v>0.6829896907216495</v>
+      </c>
+      <c r="E25" s="15">
+        <f>(E20-E23)/E20</f>
+        <v>0.77464788732394363</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="17">
+        <f>D20/D23</f>
+        <v>3.154471544715447</v>
+      </c>
+      <c r="E26" s="17">
+        <f>E20/E23</f>
+        <v>4.4375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FAC497-B184-493D-AE62-A22EFA21975F}">
+  <dimension ref="D6:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>20</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4</v>
+      </c>
+      <c r="L9" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>30</v>
+      </c>
+      <c r="J10" s="8">
+        <v>5</v>
+      </c>
+      <c r="K10" s="8">
+        <v>6</v>
+      </c>
+      <c r="L10" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="3">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8">
+        <v>12</v>
+      </c>
+      <c r="L11" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10</v>
+      </c>
+      <c r="J17" s="8">
+        <v>4</v>
+      </c>
+      <c r="K17" s="8">
+        <v>2</v>
+      </c>
+      <c r="L17" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>20</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8">
+        <v>4</v>
+      </c>
+      <c r="L18" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>30</v>
+      </c>
+      <c r="J19" s="8">
+        <v>5</v>
+      </c>
+      <c r="K19" s="8">
+        <v>6</v>
+      </c>
+      <c r="L19" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D20" s="3">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="8">
+        <v>9</v>
+      </c>
+      <c r="K20" s="8">
+        <v>12</v>
+      </c>
+      <c r="L20" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D21" s="3">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>